--- a/dados_quick_sort.xlsx
+++ b/dados_quick_sort.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Quick Sort sequencial</t>
   </si>
@@ -50,14 +53,37 @@
   </si>
   <si>
     <t>0.035000</t>
+  </si>
+  <si>
+    <t>0.015000</t>
+  </si>
+  <si>
+    <t>0.041000</t>
+  </si>
+  <si>
+    <t>0.008000</t>
+  </si>
+  <si>
+    <t>0.045000</t>
+  </si>
+  <si>
+    <t>0.039000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,11 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -112,8 +139,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -412,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,17 +481,17 @@
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -450,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10000</v>
       </c>
@@ -464,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>50000</v>
       </c>
@@ -478,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>100000</v>
       </c>
@@ -492,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>150000</v>
       </c>
@@ -506,7 +561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>200000</v>
       </c>
@@ -517,6 +572,77 @@
         <v>200000</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>150000</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -526,5 +652,6 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>